--- a/Project/03-third week/刘冰健/web测试/web探索性测试1.xlsx
+++ b/Project/03-third week/刘冰健/web测试/web探索性测试1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14214\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14214\Desktop\Junior-project-training\Project\03-third week\刘冰健\web测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3233F6-04BF-4DB8-9C79-262B23F450FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2869941-F8F8-4FFB-9FA4-E41470A97A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="9560" windowHeight="8980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,24 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,6 +781,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1124,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1145,7 +1145,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1221,7 +1221,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1352,7 +1352,7 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1434,7 +1434,7 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1516,7 +1516,7 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="4" t="s">
         <v>45</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1571,7 +1571,7 @@
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1630,7 +1630,7 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="4" t="s">
         <v>57</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1746,7 +1746,7 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="5" t="s">
         <v>86</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="10"/>
@@ -1826,7 +1826,7 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1847,7 +1847,7 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="5" t="s">
         <v>81</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>84</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>79</v>
@@ -1868,7 +1868,7 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1887,7 +1887,7 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="5" t="s">
         <v>95</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="3" t="s">
         <v>95</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
         <v>95</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="5" t="s">
         <v>89</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="5" t="s">
         <v>95</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>95</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="5" t="s">
         <v>95</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="3" t="s">
         <v>105</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="5" t="s">
         <v>105</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="3" t="s">
         <v>105</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -2136,7 +2136,7 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="5" t="s">
         <v>109</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -2195,7 +2195,7 @@
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="3" t="s">
         <v>119</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="5" t="s">
         <v>117</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="3" t="s">
         <v>117</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -2292,7 +2292,7 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="3" t="s">
         <v>124</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="5" t="s">
         <v>124</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="3" t="s">
         <v>124</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="5" t="s">
         <v>124</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="3" t="s">
         <v>124</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="5" t="s">
         <v>138</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="3" t="s">
         <v>138</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="5" t="s">
         <v>138</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="3" t="s">
         <v>138</v>
       </c>
@@ -2483,12 +2483,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B2:B5"/>
@@ -2496,6 +2490,12 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
